--- a/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
+++ b/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6455,6 +6458,26 @@
         <v>32890</v>
       </c>
     </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247">
+        <v>28665</v>
+      </c>
+      <c r="C247">
+        <v>976</v>
+      </c>
+      <c r="D247">
+        <v>2259</v>
+      </c>
+      <c r="G247">
+        <v>1541</v>
+      </c>
+      <c r="H247">
+        <v>33440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
+++ b/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6478,6 +6481,26 @@
         <v>33440</v>
       </c>
     </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248">
+        <v>29861</v>
+      </c>
+      <c r="C248">
+        <v>1002</v>
+      </c>
+      <c r="D248">
+        <v>2346</v>
+      </c>
+      <c r="G248">
+        <v>1637</v>
+      </c>
+      <c r="H248">
+        <v>34846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
+++ b/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Serie</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6501,6 +6504,26 @@
         <v>34846</v>
       </c>
     </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249">
+        <v>30202</v>
+      </c>
+      <c r="C249">
+        <v>1074</v>
+      </c>
+      <c r="D249">
+        <v>2427</v>
+      </c>
+      <c r="G249">
+        <v>1671</v>
+      </c>
+      <c r="H249">
+        <v>35373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
+++ b/5/2/6/1/Moneda extranjera 2001 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Serie</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6524,6 +6527,26 @@
         <v>35373</v>
       </c>
     </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250">
+        <v>32103</v>
+      </c>
+      <c r="C250">
+        <v>1154</v>
+      </c>
+      <c r="D250">
+        <v>2579</v>
+      </c>
+      <c r="G250">
+        <v>1684</v>
+      </c>
+      <c r="H250">
+        <v>37520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
